--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Sema3f-Nrp1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Sema3f-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Nrp1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.4968092898099</v>
+        <v>50.74268466666666</v>
       </c>
       <c r="H2">
-        <v>50.4968092898099</v>
+        <v>152.228054</v>
       </c>
       <c r="I2">
-        <v>0.9441279453883352</v>
+        <v>0.939595280901226</v>
       </c>
       <c r="J2">
-        <v>0.9441279453883352</v>
+        <v>0.939595280901226</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>97.0174500871979</v>
+        <v>101.7913436666667</v>
       </c>
       <c r="N2">
-        <v>97.0174500871979</v>
+        <v>305.374031</v>
       </c>
       <c r="O2">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="P2">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="Q2">
-        <v>4899.071674836883</v>
+        <v>5165.166053473963</v>
       </c>
       <c r="R2">
-        <v>4899.071674836883</v>
+        <v>46486.49448126567</v>
       </c>
       <c r="S2">
-        <v>0.2618845518894724</v>
+        <v>0.2635992051797699</v>
       </c>
       <c r="T2">
-        <v>0.2618845518894724</v>
+        <v>0.2635992051797699</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.4968092898099</v>
+        <v>50.74268466666666</v>
       </c>
       <c r="H3">
-        <v>50.4968092898099</v>
+        <v>152.228054</v>
       </c>
       <c r="I3">
-        <v>0.9441279453883352</v>
+        <v>0.939595280901226</v>
       </c>
       <c r="J3">
-        <v>0.9441279453883352</v>
+        <v>0.939595280901226</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>54.2179138591544</v>
+        <v>54.34621166666667</v>
       </c>
       <c r="N3">
-        <v>54.2179138591544</v>
+        <v>163.038635</v>
       </c>
       <c r="O3">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="P3">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="Q3">
-        <v>2737.831656237061</v>
+        <v>2757.672681429588</v>
       </c>
       <c r="R3">
-        <v>2737.831656237061</v>
+        <v>24819.05413286629</v>
       </c>
       <c r="S3">
-        <v>0.1463534040796265</v>
+        <v>0.1407351321225956</v>
       </c>
       <c r="T3">
-        <v>0.1463534040796265</v>
+        <v>0.1407351321225956</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.4968092898099</v>
+        <v>50.74268466666666</v>
       </c>
       <c r="H4">
-        <v>50.4968092898099</v>
+        <v>152.228054</v>
       </c>
       <c r="I4">
-        <v>0.9441279453883352</v>
+        <v>0.939595280901226</v>
       </c>
       <c r="J4">
-        <v>0.9441279453883352</v>
+        <v>0.939595280901226</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>121.748221160133</v>
+        <v>122.2542826666667</v>
       </c>
       <c r="N4">
-        <v>121.748221160133</v>
+        <v>366.762848</v>
       </c>
       <c r="O4">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="P4">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="Q4">
-        <v>6147.896705296835</v>
+        <v>6203.510514504198</v>
       </c>
       <c r="R4">
-        <v>6147.896705296835</v>
+        <v>55831.59463053778</v>
       </c>
       <c r="S4">
-        <v>0.3286416857297831</v>
+        <v>0.3165901006895663</v>
       </c>
       <c r="T4">
-        <v>0.3286416857297831</v>
+        <v>0.3165901006895663</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.4968092898099</v>
+        <v>50.74268466666666</v>
       </c>
       <c r="H5">
-        <v>50.4968092898099</v>
+        <v>152.228054</v>
       </c>
       <c r="I5">
-        <v>0.9441279453883352</v>
+        <v>0.939595280901226</v>
       </c>
       <c r="J5">
-        <v>0.9441279453883352</v>
+        <v>0.939595280901226</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.13358210476039</v>
+        <v>75.13712199999999</v>
       </c>
       <c r="N5">
-        <v>68.13358210476039</v>
+        <v>225.411366</v>
       </c>
       <c r="O5">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291165</v>
       </c>
       <c r="P5">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291166</v>
       </c>
       <c r="Q5">
-        <v>3440.528501775691</v>
+        <v>3812.659288406862</v>
       </c>
       <c r="R5">
-        <v>3440.528501775691</v>
+        <v>34313.93359566176</v>
       </c>
       <c r="S5">
-        <v>0.1839167345883921</v>
+        <v>0.1945753432978923</v>
       </c>
       <c r="T5">
-        <v>0.1839167345883921</v>
+        <v>0.1945753432978923</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>50.4968092898099</v>
+        <v>50.74268466666666</v>
       </c>
       <c r="H6">
-        <v>50.4968092898099</v>
+        <v>152.228054</v>
       </c>
       <c r="I6">
-        <v>0.9441279453883352</v>
+        <v>0.939595280901226</v>
       </c>
       <c r="J6">
-        <v>0.9441279453883352</v>
+        <v>0.939595280901226</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.643386272259139</v>
+        <v>9.304706666666666</v>
       </c>
       <c r="N6">
-        <v>8.643386272259139</v>
+        <v>27.91412</v>
       </c>
       <c r="O6">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="P6">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="Q6">
-        <v>436.4634282084307</v>
+        <v>472.1457963024977</v>
       </c>
       <c r="R6">
-        <v>436.4634282084307</v>
+        <v>4249.31216672248</v>
       </c>
       <c r="S6">
-        <v>0.02333156910106108</v>
+        <v>0.02409549961140186</v>
       </c>
       <c r="T6">
-        <v>0.02333156910106108</v>
+        <v>0.02409549961140185</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.03718674686797</v>
+        <v>2.090896333333333</v>
       </c>
       <c r="H7">
-        <v>2.03718674686797</v>
+        <v>6.272689</v>
       </c>
       <c r="I7">
-        <v>0.03808884095338142</v>
+        <v>0.03871683850705358</v>
       </c>
       <c r="J7">
-        <v>0.03808884095338142</v>
+        <v>0.03871683850705358</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>97.0174500871979</v>
+        <v>101.7913436666667</v>
       </c>
       <c r="N7">
-        <v>97.0174500871979</v>
+        <v>305.374031</v>
       </c>
       <c r="O7">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="P7">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="Q7">
-        <v>197.6426635325643</v>
+        <v>212.8351472377065</v>
       </c>
       <c r="R7">
-        <v>197.6426635325643</v>
+        <v>1915.516325139359</v>
       </c>
       <c r="S7">
-        <v>0.01056517720271784</v>
+        <v>0.01086183388207725</v>
       </c>
       <c r="T7">
-        <v>0.01056517720271784</v>
+        <v>0.01086183388207725</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.03718674686797</v>
+        <v>2.090896333333333</v>
       </c>
       <c r="H8">
-        <v>2.03718674686797</v>
+        <v>6.272689</v>
       </c>
       <c r="I8">
-        <v>0.03808884095338142</v>
+        <v>0.03871683850705358</v>
       </c>
       <c r="J8">
-        <v>0.03808884095338142</v>
+        <v>0.03871683850705358</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>54.2179138591544</v>
+        <v>54.34621166666667</v>
       </c>
       <c r="N8">
-        <v>54.2179138591544</v>
+        <v>163.038635</v>
       </c>
       <c r="O8">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="P8">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="Q8">
-        <v>110.4520155566986</v>
+        <v>113.6322947043906</v>
       </c>
       <c r="R8">
-        <v>110.4520155566986</v>
+        <v>1022.690652339515</v>
       </c>
       <c r="S8">
-        <v>0.005904317903313413</v>
+        <v>0.005799113185661247</v>
       </c>
       <c r="T8">
-        <v>0.005904317903313413</v>
+        <v>0.005799113185661247</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.03718674686797</v>
+        <v>2.090896333333333</v>
       </c>
       <c r="H9">
-        <v>2.03718674686797</v>
+        <v>6.272689</v>
       </c>
       <c r="I9">
-        <v>0.03808884095338142</v>
+        <v>0.03871683850705358</v>
       </c>
       <c r="J9">
-        <v>0.03808884095338142</v>
+        <v>0.03871683850705358</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>121.748221160133</v>
+        <v>122.2542826666667</v>
       </c>
       <c r="N9">
-        <v>121.748221160133</v>
+        <v>366.762848</v>
       </c>
       <c r="O9">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="P9">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="Q9">
-        <v>248.0238626021735</v>
+        <v>255.6210313620302</v>
       </c>
       <c r="R9">
-        <v>248.0238626021735</v>
+        <v>2300.589282258272</v>
       </c>
       <c r="S9">
-        <v>0.01325835228112455</v>
+        <v>0.01304536969318635</v>
       </c>
       <c r="T9">
-        <v>0.01325835228112455</v>
+        <v>0.01304536969318635</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.03718674686797</v>
+        <v>2.090896333333333</v>
       </c>
       <c r="H10">
-        <v>2.03718674686797</v>
+        <v>6.272689</v>
       </c>
       <c r="I10">
-        <v>0.03808884095338142</v>
+        <v>0.03871683850705358</v>
       </c>
       <c r="J10">
-        <v>0.03808884095338142</v>
+        <v>0.03871683850705358</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.13358210476039</v>
+        <v>75.13712199999999</v>
       </c>
       <c r="N10">
-        <v>68.13358210476039</v>
+        <v>225.411366</v>
       </c>
       <c r="O10">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291165</v>
       </c>
       <c r="P10">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291166</v>
       </c>
       <c r="Q10">
-        <v>138.8008304804586</v>
+        <v>157.1039328870193</v>
       </c>
       <c r="R10">
-        <v>138.8008304804586</v>
+        <v>1413.935395983174</v>
       </c>
       <c r="S10">
-        <v>0.007419730860229104</v>
+        <v>0.008017645785420819</v>
       </c>
       <c r="T10">
-        <v>0.007419730860229104</v>
+        <v>0.008017645785420819</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.03718674686797</v>
+        <v>2.090896333333333</v>
       </c>
       <c r="H11">
-        <v>2.03718674686797</v>
+        <v>6.272689</v>
       </c>
       <c r="I11">
-        <v>0.03808884095338142</v>
+        <v>0.03871683850705358</v>
       </c>
       <c r="J11">
-        <v>0.03808884095338142</v>
+        <v>0.03871683850705358</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.643386272259139</v>
+        <v>9.304706666666666</v>
       </c>
       <c r="N11">
-        <v>8.643386272259139</v>
+        <v>27.91412</v>
       </c>
       <c r="O11">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="P11">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="Q11">
-        <v>17.60819196190686</v>
+        <v>19.45517705207556</v>
       </c>
       <c r="R11">
-        <v>17.60819196190686</v>
+        <v>175.09659346868</v>
       </c>
       <c r="S11">
-        <v>0.0009412627059965039</v>
+        <v>0.0009928759607079041</v>
       </c>
       <c r="T11">
-        <v>0.0009412627059965039</v>
+        <v>0.0009928759607079041</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.951137558260624</v>
+        <v>0.066695</v>
       </c>
       <c r="H12">
-        <v>0.951137558260624</v>
+        <v>0.200085</v>
       </c>
       <c r="I12">
-        <v>0.01778321365828343</v>
+        <v>0.001234982099811391</v>
       </c>
       <c r="J12">
-        <v>0.01778321365828343</v>
+        <v>0.001234982099811391</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>97.0174500871979</v>
+        <v>101.7913436666667</v>
       </c>
       <c r="N12">
-        <v>97.0174500871979</v>
+        <v>305.374031</v>
       </c>
       <c r="O12">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="P12">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="Q12">
-        <v>92.27694058460936</v>
+        <v>6.788973665848333</v>
       </c>
       <c r="R12">
-        <v>92.27694058460936</v>
+        <v>61.100762992635</v>
       </c>
       <c r="S12">
-        <v>0.004932751924993321</v>
+        <v>0.0003464686408485144</v>
       </c>
       <c r="T12">
-        <v>0.004932751924993321</v>
+        <v>0.0003464686408485144</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.951137558260624</v>
+        <v>0.066695</v>
       </c>
       <c r="H13">
-        <v>0.951137558260624</v>
+        <v>0.200085</v>
       </c>
       <c r="I13">
-        <v>0.01778321365828343</v>
+        <v>0.001234982099811391</v>
       </c>
       <c r="J13">
-        <v>0.01778321365828343</v>
+        <v>0.001234982099811391</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.2179138591544</v>
+        <v>54.34621166666667</v>
       </c>
       <c r="N13">
-        <v>54.2179138591544</v>
+        <v>163.038635</v>
       </c>
       <c r="O13">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="P13">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="Q13">
-        <v>51.56869420198096</v>
+        <v>3.624620587108334</v>
       </c>
       <c r="R13">
-        <v>51.56869420198096</v>
+        <v>32.621585283975</v>
       </c>
       <c r="S13">
-        <v>0.0027566537640135</v>
+        <v>0.0001849789718178329</v>
       </c>
       <c r="T13">
-        <v>0.0027566537640135</v>
+        <v>0.0001849789718178329</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.951137558260624</v>
+        <v>0.066695</v>
       </c>
       <c r="H14">
-        <v>0.951137558260624</v>
+        <v>0.200085</v>
       </c>
       <c r="I14">
-        <v>0.01778321365828343</v>
+        <v>0.001234982099811391</v>
       </c>
       <c r="J14">
-        <v>0.01778321365828343</v>
+        <v>0.001234982099811391</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>121.748221160133</v>
+        <v>122.2542826666667</v>
       </c>
       <c r="N14">
-        <v>121.748221160133</v>
+        <v>366.762848</v>
       </c>
       <c r="O14">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="P14">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="Q14">
-        <v>115.7993057968233</v>
+        <v>8.153749382453332</v>
       </c>
       <c r="R14">
-        <v>115.7993057968233</v>
+        <v>73.38374444208</v>
       </c>
       <c r="S14">
-        <v>0.006190162406375241</v>
+        <v>0.0004161186366901326</v>
       </c>
       <c r="T14">
-        <v>0.006190162406375241</v>
+        <v>0.0004161186366901326</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.951137558260624</v>
+        <v>0.066695</v>
       </c>
       <c r="H15">
-        <v>0.951137558260624</v>
+        <v>0.200085</v>
       </c>
       <c r="I15">
-        <v>0.01778321365828343</v>
+        <v>0.001234982099811391</v>
       </c>
       <c r="J15">
-        <v>0.01778321365828343</v>
+        <v>0.001234982099811391</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>68.13358210476039</v>
+        <v>75.13712199999999</v>
       </c>
       <c r="N15">
-        <v>68.13358210476039</v>
+        <v>225.411366</v>
       </c>
       <c r="O15">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291165</v>
       </c>
       <c r="P15">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291166</v>
       </c>
       <c r="Q15">
-        <v>64.80440891867154</v>
+        <v>5.011270351789999</v>
       </c>
       <c r="R15">
-        <v>64.80440891867154</v>
+        <v>45.10143316611</v>
       </c>
       <c r="S15">
-        <v>0.003464181525920111</v>
+        <v>0.0002557452883406023</v>
       </c>
       <c r="T15">
-        <v>0.003464181525920111</v>
+        <v>0.0002557452883406024</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.066695</v>
+      </c>
+      <c r="H16">
+        <v>0.200085</v>
+      </c>
+      <c r="I16">
+        <v>0.001234982099811391</v>
+      </c>
+      <c r="J16">
+        <v>0.001234982099811391</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>9.304706666666666</v>
+      </c>
+      <c r="N16">
+        <v>27.91412</v>
+      </c>
+      <c r="O16">
+        <v>0.02564455154382035</v>
+      </c>
+      <c r="P16">
+        <v>0.02564455154382035</v>
+      </c>
+      <c r="Q16">
+        <v>0.6205774111333333</v>
+      </c>
+      <c r="R16">
+        <v>5.5851967002</v>
+      </c>
+      <c r="S16">
+        <v>3.167056211430871E-05</v>
+      </c>
+      <c r="T16">
+        <v>3.167056211430871E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.124742</v>
+      </c>
+      <c r="H17">
+        <v>0.3742259999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.002309830378509221</v>
+      </c>
+      <c r="J17">
+        <v>0.002309830378509221</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>101.7913436666667</v>
+      </c>
+      <c r="N17">
+        <v>305.374031</v>
+      </c>
+      <c r="O17">
+        <v>0.2805454758424659</v>
+      </c>
+      <c r="P17">
+        <v>0.2805454758424659</v>
+      </c>
+      <c r="Q17">
+        <v>12.69765579166733</v>
+      </c>
+      <c r="R17">
+        <v>114.278902125006</v>
+      </c>
+      <c r="S17">
+        <v>0.0006480124626542527</v>
+      </c>
+      <c r="T17">
+        <v>0.0006480124626542527</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.124742</v>
+      </c>
+      <c r="H18">
+        <v>0.3742259999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.002309830378509221</v>
+      </c>
+      <c r="J18">
+        <v>0.002309830378509221</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>54.34621166666667</v>
+      </c>
+      <c r="N18">
+        <v>163.038635</v>
+      </c>
+      <c r="O18">
+        <v>0.1497827149446808</v>
+      </c>
+      <c r="P18">
+        <v>0.1497827149446808</v>
+      </c>
+      <c r="Q18">
+        <v>6.779255135723332</v>
+      </c>
+      <c r="R18">
+        <v>61.01329622150999</v>
+      </c>
+      <c r="S18">
+        <v>0.0003459726651548109</v>
+      </c>
+      <c r="T18">
+        <v>0.0003459726651548109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.124742</v>
+      </c>
+      <c r="H19">
+        <v>0.3742259999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.002309830378509221</v>
+      </c>
+      <c r="J19">
+        <v>0.002309830378509221</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>122.2542826666667</v>
+      </c>
+      <c r="N19">
+        <v>366.762848</v>
+      </c>
+      <c r="O19">
+        <v>0.3369430510399163</v>
+      </c>
+      <c r="P19">
+        <v>0.3369430510399163</v>
+      </c>
+      <c r="Q19">
+        <v>15.25024372840533</v>
+      </c>
+      <c r="R19">
+        <v>137.252193555648</v>
+      </c>
+      <c r="S19">
+        <v>0.0007782812951195819</v>
+      </c>
+      <c r="T19">
+        <v>0.0007782812951195819</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.124742</v>
+      </c>
+      <c r="H20">
+        <v>0.3742259999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.002309830378509221</v>
+      </c>
+      <c r="J20">
+        <v>0.002309830378509221</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>75.13712199999999</v>
+      </c>
+      <c r="N20">
+        <v>225.411366</v>
+      </c>
+      <c r="O20">
+        <v>0.2070842066291165</v>
+      </c>
+      <c r="P20">
+        <v>0.2070842066291166</v>
+      </c>
+      <c r="Q20">
+        <v>9.372754872523997</v>
+      </c>
+      <c r="R20">
+        <v>84.35479385271599</v>
+      </c>
+      <c r="S20">
+        <v>0.0004783293913814141</v>
+      </c>
+      <c r="T20">
+        <v>0.0004783293913814141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.124742</v>
+      </c>
+      <c r="H21">
+        <v>0.3742259999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.002309830378509221</v>
+      </c>
+      <c r="J21">
+        <v>0.002309830378509221</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>9.304706666666666</v>
+      </c>
+      <c r="N21">
+        <v>27.91412</v>
+      </c>
+      <c r="O21">
+        <v>0.02564455154382035</v>
+      </c>
+      <c r="P21">
+        <v>0.02564455154382035</v>
+      </c>
+      <c r="Q21">
+        <v>1.160687719013333</v>
+      </c>
+      <c r="R21">
+        <v>10.44618947112</v>
+      </c>
+      <c r="S21">
+        <v>5.923456419916181E-05</v>
+      </c>
+      <c r="T21">
+        <v>5.923456419916181E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.9798133333333334</v>
+      </c>
+      <c r="H22">
+        <v>2.93944</v>
+      </c>
+      <c r="I22">
+        <v>0.01814306811339978</v>
+      </c>
+      <c r="J22">
+        <v>0.01814306811339978</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>101.7913436666667</v>
+      </c>
+      <c r="N22">
+        <v>305.374031</v>
+      </c>
+      <c r="O22">
+        <v>0.2805454758424659</v>
+      </c>
+      <c r="P22">
+        <v>0.2805454758424659</v>
+      </c>
+      <c r="Q22">
+        <v>99.73651574251556</v>
+      </c>
+      <c r="R22">
+        <v>897.6286416826401</v>
+      </c>
+      <c r="S22">
+        <v>0.005089955677116013</v>
+      </c>
+      <c r="T22">
+        <v>0.005089955677116013</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.9798133333333334</v>
+      </c>
+      <c r="H23">
+        <v>2.93944</v>
+      </c>
+      <c r="I23">
+        <v>0.01814306811339978</v>
+      </c>
+      <c r="J23">
+        <v>0.01814306811339978</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>54.34621166666667</v>
+      </c>
+      <c r="N23">
+        <v>163.038635</v>
+      </c>
+      <c r="O23">
+        <v>0.1497827149446808</v>
+      </c>
+      <c r="P23">
+        <v>0.1497827149446808</v>
+      </c>
+      <c r="Q23">
+        <v>53.24914280715556</v>
+      </c>
+      <c r="R23">
+        <v>479.2422852644</v>
+      </c>
+      <c r="S23">
+        <v>0.002717517999451288</v>
+      </c>
+      <c r="T23">
+        <v>0.002717517999451288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.951137558260624</v>
-      </c>
-      <c r="H16">
-        <v>0.951137558260624</v>
-      </c>
-      <c r="I16">
-        <v>0.01778321365828343</v>
-      </c>
-      <c r="J16">
-        <v>0.01778321365828343</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>8.643386272259139</v>
-      </c>
-      <c r="N16">
-        <v>8.643386272259139</v>
-      </c>
-      <c r="O16">
-        <v>0.02471229584403883</v>
-      </c>
-      <c r="P16">
-        <v>0.02471229584403883</v>
-      </c>
-      <c r="Q16">
-        <v>8.221049314099954</v>
-      </c>
-      <c r="R16">
-        <v>8.221049314099954</v>
-      </c>
-      <c r="S16">
-        <v>0.0004394640369812522</v>
-      </c>
-      <c r="T16">
-        <v>0.0004394640369812522</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.9798133333333334</v>
+      </c>
+      <c r="H24">
+        <v>2.93944</v>
+      </c>
+      <c r="I24">
+        <v>0.01814306811339978</v>
+      </c>
+      <c r="J24">
+        <v>0.01814306811339978</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>122.2542826666667</v>
+      </c>
+      <c r="N24">
+        <v>366.762848</v>
+      </c>
+      <c r="O24">
+        <v>0.3369430510399163</v>
+      </c>
+      <c r="P24">
+        <v>0.3369430510399163</v>
+      </c>
+      <c r="Q24">
+        <v>119.7863762139022</v>
+      </c>
+      <c r="R24">
+        <v>1078.07738592512</v>
+      </c>
+      <c r="S24">
+        <v>0.006113180725353942</v>
+      </c>
+      <c r="T24">
+        <v>0.006113180725353942</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.9798133333333334</v>
+      </c>
+      <c r="H25">
+        <v>2.93944</v>
+      </c>
+      <c r="I25">
+        <v>0.01814306811339978</v>
+      </c>
+      <c r="J25">
+        <v>0.01814306811339978</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>75.13712199999999</v>
+      </c>
+      <c r="N25">
+        <v>225.411366</v>
+      </c>
+      <c r="O25">
+        <v>0.2070842066291165</v>
+      </c>
+      <c r="P25">
+        <v>0.2070842066291166</v>
+      </c>
+      <c r="Q25">
+        <v>73.62035396389334</v>
+      </c>
+      <c r="R25">
+        <v>662.58318567504</v>
+      </c>
+      <c r="S25">
+        <v>0.003757142866081416</v>
+      </c>
+      <c r="T25">
+        <v>0.003757142866081417</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.9798133333333334</v>
+      </c>
+      <c r="H26">
+        <v>2.93944</v>
+      </c>
+      <c r="I26">
+        <v>0.01814306811339978</v>
+      </c>
+      <c r="J26">
+        <v>0.01814306811339978</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>9.304706666666666</v>
+      </c>
+      <c r="N26">
+        <v>27.91412</v>
+      </c>
+      <c r="O26">
+        <v>0.02564455154382035</v>
+      </c>
+      <c r="P26">
+        <v>0.02564455154382035</v>
+      </c>
+      <c r="Q26">
+        <v>9.116875654755557</v>
+      </c>
+      <c r="R26">
+        <v>82.0518808928</v>
+      </c>
+      <c r="S26">
+        <v>0.0004652708453971243</v>
+      </c>
+      <c r="T26">
+        <v>0.0004652708453971242</v>
       </c>
     </row>
   </sheetData>
